--- a/data/xlsx/locations.xlsx
+++ b/data/xlsx/locations.xlsx
@@ -22,7 +22,7 @@
     <t>region_id</t>
   </si>
   <si>
-    <t>desc</t>
+    <t>description</t>
   </si>
   <si>
     <t>image_url</t>
